--- a/500all/speech_level/speeches_CHRG-114hhrg96986.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96986.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning.    Today we are going to have another discussion on a discussion draft addressing hydropower regulatory modernization, and the FERC process coordination under the Natural Gas Act. As you know, we have had a series of meetings and hearings on drafts that we want to incorporate in an overall energy bill, and today, as I said, we are going to be focusing on hydroelectric power and natural gas. And our goal is to help unleash the potential of these affordable domestic energy sources by modernizing the applicable regulatory process at FERC.    If ever there were such a thing as a bipartisan energy source, it is certainly hydroelectric, and natural gas would be at the top of the list. So I look forward to working with all of my colleagues to minimize the red tape and maximize the benefits of these two sources for the sake of affordable energy, the environment, national security, job creation, and certainly economic growth.    Hydroelectric is a source of clean, reliable, and affordable power, yet the federal process for licensing new capacity or relicensing existing capacity is considerably more cumbersome than for other renewable sources. For example, I have been told that it is not unusual that these hydropower projects to obtain the permits sometimes takes on average maybe up to 5 years, and I know we are going to hear today about a process that has taken 15, 16 years. But on the other side of the coin, for wind and solar projects, the Administration is so focused on moving those that you can get permits in 18 months, and then also you get exemptions from the Migratory Bird Act and also the Eagle Protection Act. So there is a lot of favoritism in those areas.    So this discussion draft will establish FERC as the exclusive authority on hydroelectric licensing, and includes several provisions to eliminate redundant and unnecessary requirements, and put the review process on a reasonable schedule. It also encourages the creation of new hydroelectric power from existing non-powered dams by providing a licensing exemption for qualifying facilities. In all cases, all cases, the environmental and safety requirements for these facilities will be maintained. So we are not taking away any power from the agencies that have that responsibility.    A few weeks ago, we had a hearing and I talked about Dire Straits, they had a song, Money for Nothing, Chicks are Free. Today, we have the words of Woody Guthrie in his song, Roll on Columbia, and it goes like this, and up on the river is the Grand Coulee Dam, the mightiest thing ever built by man, to run these great factories and water the land, it is roll on, Columbia, roll on. So we want to help Woody Guthrie keep this water rolling, produce this hydropower. Now, he didn't talk about natural gas, but FERC is also involved in the approval process for interstate natural gas pipelines, and the problems are much the same as with hydroelectric power: a slow and unpredictable approval process that is out of touch with America's energy needs today. This is particularly true of natural gas, given the tremendous increases in domestic output over the last decade. So getting that gas to the power plants and factories and consumers that need it will require new pipelines as well as upgrades of existing pipelines. In fact, this was a major point in the Department of Energy's Quadrennial Energy Review. It was clear that a more streamlined permitting process will help to build these pipelines.    So that is out goal. We want an efficient, quick process, but we want to protect the environment and make sure that we provide adequate protections for safety and everything else. So that is what our hearing is about this morning.    I am really delighted, we have two panels of witnesses, and I will be introducing our first panel in just a minute. At this time, I would like to recognize Mr. Rush for his opening statement.</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. As I have said before, the reality of the energy picture in the United States is changing rapidly. As the committee of jurisdiction over national energy policy, it is eminently reasonable and appropriate for the committee to look closely at our new energy reality. So much has changed since the House last considered an energy bill, and it is our responsibility to carefully consider proposals to help us develop the energy policies of the future.    Two weeks ago, I expressed concern cramming two completely unrelated subjects into a single, two-panel hearing, and again, we are here examining two subjects; natural gas pipeline permitting and hydroelectric licensing, that are important and warrant not only separate legislative hearings, but they also should be proceeded by a thorough oversight. It has been years, and in the case of hydroelectric licensing, an entire decade since this committee has conducted oversight of either of the programs that these drafts aim to reconfigure. From my perspective, this committee should not be writing legislative solutions before members have a chance to examine the state of play, or even confirm that a problem actually exists.    While hydroelectric power can be an important source of no-emission base load generation, it also potentially poses major harm to fish and wildlife populations, water quality, and other important resources. Hydroelectric power depends on rivers for fuel, and those rivers belong to all Americans, not just those who sell or buy the power generated from it.    The Federal Power Act requires FERC to balance those competing interests in issuing a license because no one use of a river for power, drinking water, irrigation, recreation, or other use, should automatically take precedence. For instance, if a license might impact a protected resource such as a wild and scenic river, a national wildlife refuge, or a national park, then the appropriate federal agency responsible for that resource can put conditions on the license to ensure that the resource is protected.    Unfortunately, the draft proposal before us completely throws out decades of policy and case law in one fell swoop. There is nothing subtle about the draft's changes. It undermines the key provisions of current law that exist to conserve our natural resources and protected areas, and ensure a balanced approach to the use of our nation's rivers. This legislation will only result in greater confusion, time-consuming litigation, and exacerbated and unnecessary delays of hydropower licenses. So I sincerely hope the majority will consider holding proper oversight hearings to inform members, and help facilitate constructive discussions on hydropower reform.    With regard to the other issue, the natural gas pipeline selling legislation, like the previous iterations of this bill. The draft is yet another solution in search of a problem. According to FERC, more than 91 percent of pipeline applications are reviewed within 1 year. I think that is pretty remarkable. And GAO concluded that the current FERC pipeline permitting process is predictable, consistent, and actually gets pipelines built. We have even heard pipeline companies testify that the process is generally very good.    So this legislation, in my opinion, is unnecessary and would disrupt the perfectly functioning permitting process. Instead, it imposes a laundry list of prescriptive, duplicative, and potentially harmful requirements on FERC and every agency involved in the permitting process. This would only slow down, rather than speed up the approval of interstate natural gas pipelines. The draft positions FERC as a policing agency charged with micromanaging other agencies in consideration of application, even determining the scope of their environmental review, and FERC doesn't have the expertise or resources to make those types of decisions. More problematic, the draft purports to address this resource issue by allowing applicants to provide extra funding for FERC staff or contractors to aid in the speedy review of pipeline applications. And this provision is troublesome and could lead to inappropriate relationships between applicants and FERC staff.    So, Mr. Chairman, I can't support either of the drafts before us today, and I urge the majority to rethink their proposals. Instead, I would like to work with you on energy legislation that benefits consumers as well as producers, promotes American jobs, protects our environment, and builds upon past successes to propel us into a better future.    I yield the balance of my time. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Governor, welcome. I have been fortunate to be a member of the committee for a long time. And does New England still rely heavily on heating oil--and I think that is part of this debate, isn't it?    Governor LePage. Yes, it is for us. In 2010, when I took office, roughly 80 percent of the homes in Maine were heated with heating oil. We have managed to get it down to about 62 percent this past winter. Most of it has been with heating pumps and pellets. In the rural areas, we can do pellets, heat pumps, that technology works pretty well, but in order to really make a difference, we really need natural gas to get into the infrastructure that we have in our state in order to be able to take the--while we call metropolitan areas or urban areas of Maine, you would call them----</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Well, thank you, Mr. Chairman. Thank you, Governor and Ms. Miles, for coming and testifying this morning.    You know, I think the intent of the bill sounds good; streamlining permitting so that we have things operating in parallel instead of in series. We want an efficient process, but I am not sure that we are heading down the right path in order to achieve that goal.    Regarding the pipeline question, my estimate is it might actually make things worse. For example, FERC data shows that the average time for filing to approval is under 10 months, and FERC decides 91 percent of certificate applicants within 12 months. So are we actually going to make things better by enacting this kind of rule?    So, Ms. Miles, what, if any, are the potential benefits of simply mandating pre-filing, trying to bring federal agencies to the table sooner on every permit?</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson [presiding]. The gentleman yields back.    As fate would have it, the chairman has to run off for a little opportunity, so 5 minutes for some questions.    And first of all, welcome. Good morning. Thanks for coming. Governor LePage, just when we talked earlier about Maine, and what I know about Maine is you have a lot of water, lots over very powerful water, because my brother surfs in York, Maine, every winter. Really cold, and apparently gets some tubing, some really big waves, much bigger than Galveston, Texas. So I want to learn more about your issue of hydropower. I understand you have done a study on hydropower recently. Can you talk about those findings and what are some of the benefits of hydropower challenges that this bill may fix?    Governor LePage. Well, right now in Maine we have a number of small dams throughout the state. So that you get the picture of Maine, Maine is 35,000 square miles, 90 percent is water and forest. So it gives you a sense that we have an awful lot of natural resources. And we are very proud of it and we take care of it, and one of the things that we do is we are very strong in tourism. We believe that we have the resources to be self-sufficient, and we could do it in a timely manner.    Now, I have heard some talk about liquid natural gas. When I was elected in 2010, there was a project for liquid natural gas to be in Maine, and what happened now it has been canceled. So the point is--what I am saying is, if we were able to energize a lot of these little dams that we have, we could generate 70 megawatts of power for the Maine people, and lower the costs that we are currently paying.</t>
   </si>
   <si>
@@ -223,9 +208,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. And, Governor, thank you for being here, and also, Director Miles.    Director Miles, thank you for testifying, and I know FERC has a lot of on its plate and I think many of us believe the commission is doing as good a job as possible on natural gas space reviewing applications and issuing decisions. Today, I would like to talk about the FERC process of coordination for natural gas pipelines.    In your testimony, you seemed to encourage more accountability in the pre-file review process. First, when you write natural gas project applications, what do you mean? Are you including every application, or are you including LNG operation and maintenance, or just new construction, or are you using all of them? Is that----</t>
   </si>
   <si>
@@ -277,9 +259,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you, Mr. Chairman.    Director Miles, I come from a position on this committee as a member who is currently dealing with the issue of permitting a 42-inch natural gas pipeline currently in the application review stage, and my district in Pennsylvania is home to some of the most pristine farmland, conservation space in the country, and my constituency has basically run the gamut of issues relating to the proposed pipeline from eminent domain to Indian burial grounds. One issue that keeps coming up is that of pipeline safety. As noted in your written testimony, FERC plays an inspection role during pipeline construction, but the Department of Transportation has jurisdiction to establish pipeline safety regs for operating reliance. So my question is can you tell us about the coordination you engage in with DOT to ensure that pipelines will meet their regulations, and ensure that nothing falls through the cracks as jurisdiction transitions from FERC to another agency?</t>
   </si>
   <si>
@@ -346,9 +325,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman. And thanks to both of you for being here.    And, Governor, thank you for your insight, and we certainly--it is not the first story we have heard about difficulties. And it almost appears that the delays are built in to keep others from trying to even go through the process, to make it so time-sensitive and so expensive that people just decide it is not worth the effort. Do you believe that?    Governor LePage. That is exactly what I am talking about. For these smaller, little projects, it is all about you delay them until they get discouraged and they have spent enough money.</t>
   </si>
   <si>
@@ -409,9 +385,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair.</t>
   </si>
   <si>
@@ -448,9 +421,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    I gather that the genesis of this legislation and this hearing are all about grid reliability. We have had numbers of meetings here and hearings about grid reliability, and this is one way to do it, either hydro or gas, to be able to expedite that. There is a study, I know, done by the University of Minnesota that talks about the concern for grid reliability because they say in the Midwest annually we have about 92 minutes per year that we lose power, and you in the Northeast and in New England the average is 214 minutes are lost annually, as compared to Japan, Japan only has 4 minutes a year in grid reliability. So my concern is, with a lot of these regulations that are being imposed on us, is that things like the EIA has come out and said that if we continue on with this, we are going to lose 25 percent of our coal-fired generating capacity within the next couple of years. The PJM came out with a report in 2014 that said after the polar vortex, that we came within 500 megawatts for 5 minutes; 700 megawatts for an hour, that we came that close to having a massive power shortage in America. And that compliments what FERC's Commissioner Moeller came out and he said that we had better be concerned about this because we are going to have more blackouts, rolling brownouts in the Midwest by 2017 if we don't do something.    So my question to you, Ms. Miles, is--and thank you--you have been with the FERC now for 30 years. I understand you joined in 1985, so you have seen quite a change perhaps within the group. Do you think that there is a real grasp of this situation of where we could be faced with brownouts? Do you think--was Moeller correct that should be concerned about this by the next 2 years, if we continue with these regulations that we are going to have shortages?</t>
   </si>
   <si>
@@ -472,9 +442,6 @@
     <t>412212</t>
   </si>
   <si>
-    <t>John P. Sarbanes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman. Thanks to the panel.    So I mean I think your last answer was actually a pretty good one in terms of the desire to have things move efficiently and timely, and I don't begrudge my colleagues' aspiration for all of this process to happen more quickly. The problem is that if you put some of these fixed timelines in place, not only is there the issue that Congressman Tonko mentioned, which is where maybe FERC is being asked or compelled to substitute its expertise for that of other agencies in some instances, but if there is a timeline being put in place, that is a process thing, but it can have an impact on the substantive issues that need to be addressed. Most of the conversation here has related to the relationship between FERC and other federal agencies in terms of trying to get whatever review they are undertaking as part of a project done in a timely way, and the goal here is to give FERC the ability to kind of ride heard over that process and kind of corral the other agencies into a more expedited time frame. But as I understand it, Ms. Miles, it also has implications for state-level reviews and permits that would be issued as well, is that correct?</t>
   </si>
   <si>
@@ -487,9 +454,6 @@
     <t>400018</t>
   </si>
   <si>
-    <t>Joe Barton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barton. I just want to say amen to the Governor of Maine. Move to Texas. We like your attitude.    Mr. Chairman, I am going to concentrate on the section of the proposed draft that deals with the Natural Gas Act.    Back in 2005, we passed a major energy bill called the Energy Policy Act of 2005, and in that, we gave the agency, the Federal Energy Regulatory Commission, additional authority to review pipeline applications. With all due respect, it doesn't look to me like the agency is using that authority. If we are going to shut down all these coal plants, Mr. Chairman, we are going to have to replace them at some point in time with some other kind of plant, and in most cases, that is--it could be a solar plant, it could be wind, but in a lot of cases it is going to be natural gas. So to get the gas to the plant, we are going to have to have more pipelines.    The good news is that we have lots of natural gas to send, to use in electricity generation. The bad news is we have to get those pipelines built to get it there.    So my first question to the gentlelady from the FERC, does your agency really want to be the lead agency, because it doesn't look to me like you do?</t>
   </si>
   <si>
@@ -511,9 +475,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you, Mr. Chairman.    Governor, I know you have to get power, and that is a problem for a lot of states as we press forward. I will assure you that we can ship you all the coal from southwest Virginia that the Federal Government will allow you to use. And Ohio. Can't leave out my good friend, Mr. Johnson. And West Virginia, and for my colleague who spoke earlier.    That being said, we have, in my opinion, unreasonable regulations on the use of coal, unreasonable timetable on a number of the new regulations coming into effect. And so the natural gas companies, I understand why they are doing it. They are proposing all kinds of pipelines be built, not just in your area, but they have a number that are coming through western Virginia. And so, Ms. Miles, that raises a lot of questions that I have for you this morning.    The pre-filing review phase is not mandatory for natural gas pipelines. Should it be?</t>
   </si>
   <si>
@@ -550,9 +511,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman. I appreciate it, and thank our panel for being with us here this morning as well.    Director Miles, one of the concerns that you raise on page 17 of your testimony regarding the trial type hearing and the provisions under the discussion drafts to move all of these to FERC administrative law judges has to do with administrative costs, but isn't it true that FERC recovers all of its administrative costs for the hydro program from licensees under annual charges required by the Federal Power Act?</t>
   </si>
   <si>
@@ -601,9 +559,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman. And I appreciate the witnesses for being here.    And, Ms. Miles, I must say, we have a lot of directors, secretaries that come in here, and a lot of times their demeanor is, in my opinion, almost despicable, and I want to commend you on how you are handling yourself today. I think all of us will say that we are wanting to work with you, we are wanting to work with the Governor, we are wanting to get issues resolved, but we are having a hard time understanding where FERC is going. And I understand you control, you know, a small piece of that pie, but we all are having problems. I mean one of the most common complaints I have in my district, I represent the eastern part of Oklahoma, the entire eastern side of Oklahoma, and we have many lakes and several of them are controlled by FERC, and it seems like FERC is growing in their influence in our state. In particular on the shorelines. And, Ms. Miles, you mentioned on page 13 in your testimony that the Federal Power Act determined that matters related to shoreline use, such as recreational flood control and environmental protection, are sometimes more of a local concern and, thus, should be resolved by an entity that is required to consider the overall public interest. Could expand on that comment a little bit more?</t>
   </si>
   <si>
@@ -628,18 +583,12 @@
     <t xml:space="preserve">    Mr. Whitfield. Gentleman yields back.    And that concludes the questions for the first panel. Once again, Governor, thank you for being here. Ms. Miles, thank you for being here. We look forward to working with both of you as we continue our efforts to develop an energy package. And thank you again for your time, and we will be in touch.    At this time, I would like to call up the second panel. On the second panel today, we have 6 witnesses. I am not going to introduce everybody immediately, but I will introduce you as you are recognized to give your opening statement. And so if you all, when you get time, would have a seat. I want to thank all of your for joining us today, and we appreciate also your patience.    And our first witness this morning will be Mr. Donald Santa on the second panel. He is the President and CEO of the Interstate Natural Gas Association of America. Mr. Santa, thanks again for being with us. And each one of you will be given 5 minutes for your opening statement, and then we will open it up for questions.    So, Mr. Santa, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Santa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Santa. Good morning, Chairman Whitfield, Ranking Member Rush, and members of the subcommittee. My name is Donald Santa, and I am the President and CEO of the Interstate Natural Gas Association of America, or INGAA. INGAA represents interstate natural gas transmission pipeline operators in the U.S. and Canada. Our 24 members operate the vast majority of the interstate natural gas transmission network, which is the natural gas industry analogue to the interstate highway system.    The approval and permitting process for interstate natural gas pipelines has become increasingly challenging. While this has been a good, albeit complex process, there have been some trends in the wrong direction. What was once orderly and predictable is now increasingly protracted and contentious. Most energy experts agree that we will need more gas pipeline infrastructure to connect the new supplies of natural gas made available by the shale revolution, and to support increased demand for gas from manufacturing and petrochemical sectors, electric generators, and other end-users. We need a process that balances thorough environmental review and active public involvement with orderly, predictable, and timely approval and permitting of necessary energy infrastructure.    If enacted, the draft bill before the subcommittee today would modestly improve the permitting process by introducing additional transparency and accountability for federal and state permitting agencies. We support these steps, but continue to urge Congress to create real consequences for agencies that fail to meet reasonable deadlines. Entities proposing to construct or expand or modify an interstate natural gas pipeline must seek a certificate of public convenience and necessity from the Federal Energy Regulatory Commission. While the Natural Gas Act provides FERC with exclusive authority to authorize the construction and operation of interstate natural gas pipelines, a variety of other permits and authorizations are necessary in order to construct and operate such a pipeline. And I think as evidenced by Mr. Johnson's question a few minutes ago, while a lot of the dialogue this morning has been about the timeliness of FERC's action under the Natural Gas Act, the focus of the draft bill really is the timeliness of these other permits and authorizations that are necessary before a pipeline can be constructed.    The Energy Police Act of 2005 provided FERC with new authority to oversee the pipeline permitting process. First, Section 313 of EPAct 2005 clarified that FERC is the lead agency under the National Environmental Policy Act for interstate natural gas infrastructure projects. Second, this section empowered FERC to establish a schedule for all other federal authorizations. In other words, all federal and state permits required under federal law. Section 313 stated that other federal and state permitting agencies ``shall cooperate with the commission and comply with the deadlines established by the commission.'' The draft legislation would codify the FERC rule that established a deadline 90 days after the completing of FERC's NEPA review for all agencies acting under federal authority to make their final permitting decisions.    The beginning of the 90-day permitting deadline would not be the first time a permitting agency would have seen an application from a pipeline developer. By the time FERC completes its NEPA review, it reasonably can be expected that the pipeline project developer will have been engaged in a dialogue with the various permitting agencies for 12 to 18 months, or perhaps even longer. Consequently, permitting agencies will have had ample time to review a proposed project, suggest changes and modifications, and render a final decision.    Although EPAct 2005 authorized FERC to establish a deadline for permitting agencies, it did not create a mechanism for FERC to enforce such deadlines. Instead, a pipeline project developer may challenge a permitting agency's tardiness or inaction in federal court. Doing so, however, is both time-consuming and risky, and this option seldom has been exercises. The lack of permitting schedule enforceability has become the Achilles' heel in the pipeline approval and permitting process. Agencies are free to ignore FERC's deadline in what is currently a consequence-free environment.    Why is the timely approval of pipeline permits important? Pipeline infrastructure is a necessary predicate for fully realizing the benefits of America's natural gas abundance. Abundant natural gas spurred by shale development already has had a profound effect on the United States' economy.    We hope that Congress will ensure that there are consequences associated with pipeline permitting delays so that this critical energy infrastructure can be constructed on a timely basis. Transparency is certainly important, yet it needs to go hand-in-hand with clear accountability for agency inaction or delay.    Thank you for the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Mr. Santa, thank you very much for that opening statement.    Our next witness is Ms. Carolyn Elefant, who is a Member of the Board of the Pipeline Safety Coalition, and Principal of the Law Offices of Carolyn Elefant. So thank you for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Elefant</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Elefant. Thank you, Chairman Whitfield. Thank you, Chairman Whitfield, and good afternoon to you and to Ranking Member Rush, and the members of the subcommittee.    As you mentioned, my name is Carolyn Elefant. I am on the Board of the Pipeline Safety Coalition, which is a nonprofit organization that serves as a clearinghouse for factual and objective information to increase public awareness about pipelines, and also to promote environmental and public safety. In addition, in my capacity as an attorney, I represent landowners, conservation trusts, community governments, and other entities that are directly impacted by pipeline infrastructure.    My testimony today will highlight two of the coalition's concerns regarding the draft legislation, which essentially requires federal and state agencies with permitting authorities over pipelines to adhere to deadlines established by FERC.    First, the coalition believes that the legislation is unnecessary. There is little evidence to suggest that it is actually the state and federal permitting agencies that are responsible for delays in development of pipeline infrastructure. And to the extent that they are, companies already have a mechanism in place to enforce those deadlines, which is through bringing suit in federal court; a mechanism that has only been used twice since it was enacted 10 years ago in the Energy Policy Act.    Second, the coalition's greater concern is that the proposed legislation's approach to expediting the permitting process, such as requiring federal and state permitting agencies to confine the scope of their environmental review to those issues identified by FERC, would subordinate the regulatory mandates of FERC's sister federal agencies, as well as state agencies implementing delegated federal authority under statutes like the Clean Water Act, the Clean Air Act, and the Coastal Zone Management Act.    So the first issue I wanted to discuss as to why this legislation isn't necessary relates to the delays, and from our perspective it is not clear that these state and federal permits are holding up the process. The way the INGAA has defined delay in its 2012 report that it commissioned is a situation where a state or federal permit is not completed within 90 days after FERC completes its environmental review. But there are many reasons for why this can happen. And first of all, the processes are not always properly aligned. So a company may not initiate the state permitting process until several months after it started the FERC certificate process, and that can lead to a misalignment at the end. In addition, state agencies also have--the statutes provide them with a year, in some instances, to act on a permit. So if you start the process late, it is going to run over at the end.    The second issue related to delay is that many times a delay may occur because there is a change in the root, or a different alternative is proposed down the line. And there are instances where a company knows about this initially, but rather than trying to accommodate and negotiate that issue, they will hedge their bets and figure that if they ignore it, it will go away. And it comes back to bite them at the end of the process. I have been involved in at least two proceedings where issues raised by state agencies early on in pre-filing were ignored for years later, and when it finally came time to issue the permit, and it appeared that the state permit wasn't going to issue, those issues had to be dealt with and it created some delay.    And last, as I mentioned, to the extent that there is delay, there is a mechanism that Congress put in place 10 years ago; the ability to bring suit in District Court. I would respectfully disagree with my colleague, Mr. Santa, as to the difficulty of this. It has been used twice. I was involved, representing interveners in one of those proceedings. It is extremely expedited, it is about 3 months, and the company in this particular situation received relief very quickly. And even with this expedited schedule, I, representing a group of landowners, was still able to participate. So that is an option that is highly underutilized, and suggests to me that perhaps companies don't believe that they have enough of a case to be able to bring to court to show delay. And so they are not using this provision because it isn't as necessary as has been suggested.    As I mentioned before, really from our perspective, the most troubling aspect of the legislation is it seeks to eliminate delay really be eliminating differing perspectives. For example, one of the provisions that has been discussed is that, when making a decision with respect to federal authorization, the federal and state agencies shall defer to FERC's scope of the environmental issues. And this is very troubling because state agencies and federal permitting agencies have different mandates. They evaluate different things in the environmental process. And you will sometimes see that they may be identifying issues that FERC considers not relevant to the certificate process. And that makes sense, but these are different mandates. So we don't see that there is any justification to compel a federal or federally backed agency to subordinate its regulatory mandates to the goals of the Natural Gas Act, and indeed, we can't think of any other federal industry or federally regulated industry that has been granted a similar trump card.    So those are some of the concerns that we have, and I look forward to participating in the rest of this hearing. Thank you.</t>
   </si>
   <si>
@@ -649,34 +598,22 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Good morning, Chairman Whitfield, Ranking Member Rush, and distinguished members of the subcommittee. My name is John Collins, and I am the Managing Director of Business Development for Cube Hydro Partners, a small, women-led business that owns and operates hydroelectric plants in several states. The company also engages in new hydropower development through the building of new plants at existing dams. I have over 25 years of experience in the energy industry, including previous experience in the development of over 3,500 megawatts of merchant power natural gas-fired plants during my career at Constellation Energy. I spent over 22 years with Constellation Energy Group in various leadership positions, including Chief Risk Officer, Chief Financial Officer, and Senior Vice President of Integration. I am pleased to have the opportunity to appear before you this morning to discuss the importance of modernizing and improving the hydropower licensing and relicensing process to make it more efficient and transparent, while supporting environmental protections.    Cube Hydro's current portfolio of hydrogenation assets consist of 13 plants that comprise over 106 megawatts. The company is committed to developing, owning, and operating hydropower facilities across the United States. We are actively pursuing the potential development of new projects on existing dams.    The National Hydropower Association and the Oakridge National Laboratories cite the potential to retrofit more than 54,000 dams in the United States, bringing more than 1,200 megawatts of new renewable energy onto the grid, while creating hundreds of thousands of new jobs, and mitigating 40 million tons of greenhouse gas emissions annually. These opportunities are tremendous. However, the length, expense, and uncertainty of the hydro licensing approval process significantly disadvantages development. Licensing can extend for nearly a decade, and such a long, protracted, and uncertain regulatory process hampers investment by increasing regulatory risks, financial risks, and implementation risks, thus, driving up the cost of new hydropower at existing dams. The time and energy to secure the licenses and permits contributed to development costs that can be between 25 and 30 percent of the overall cost of the project.    Cube Hydro experienced these regulatory challenges firsthand while developing its 6 megawatt Mahoning Creek Hydroelectric Project in western Pennsylvania. The overall regulatory process for the project spanned almost 10 years, causing significant difficulties in obtaining financing, and securing a long-term power purchase agreement. Although the end result is and continues to be a success story, the development process was a significant challenge.    To facilitate hydropower development, the regulatory process should be streamlined to eliminate redundancies and provide developers and investors with added certainty. Removing duplication in the process, and placing a single agency in charge of managing the entire approval process is needed. Such accountability is an essential attribute of efficient management and good government. The implementation of a streamlined regulatory process also needs to look to standardize the requirements associated with issuing a license to eliminate any competing requirements. We are particularly supportive of the provisions that will minimize duplications of studies and license proceedings, simplify the regulatory process for smaller projects, authorize new studies only when the FERC determines that additional data is necessary, weigh the cost-benefit analysis of licensing requirements, implement a use-it-or-lose-it provision for submitting a pre-application document within 3 years, as opposed to the current system which allows up to 8 years without developing the project. The end result is the establishment and enforcement of project timelines. These and other initiatives would help to simplify licensing requirements, and facilitate hydropower project development and relicensing. We believe that hydropower is, and should remain, an important component of and environmentally sustainable U.S. energy policy. Providing the ability to invest private capital to upgrade, modernize, and stabilize this resource is critical to maintaining and growing the currently installed base, which is the largest of any renewable resource in the United States. Hydropower is clean, renewable base load energy that helps to stabilize our electric grid. Federal policies should be adopted to encourage the development of this vast resource. Cube Hydro believes the draft legislative proposals under consideration by the subcommittee today are a reasoned and responsible modernization of federal licensing legislation to allow for increased development of this important resource.    I thank the subcommittee for this opportunity to testify on hydropower's role in meeting our nation's energy and economic objectives, and look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Well, thank you, Mr. Collins.    And our next witness is Mr. Richard Roos-Collins, who is General Counsel for the Hydropower Reform Coalition, and Principal in the Water and Power Law Group, and he is testifying on behalf of the Hydropower Reform Coalition. So you are recognized for 5 minutes, Mr. Collins.</t>
   </si>
   <si>
-    <t>Roos-Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roos-Collins. Thank you, and good afternoon, Mr. Chairman, ranking minority members. My name is Richard Roos-Collins. I appear on behalf of the Hydropower Reform Coalition.    Our conservation groups represent two million people who fish, boat, and hike on the lands and waters of these hydropower projects. Since 1992, our coalition has reached 170 settlement agreements with licensees, including Pacific Gas and Electric, and also New York Power Authority. We worked with the National Hydropower Association and other stakeholders to negotiate the 2005 integrated licensing process which FERC uses, and the 2013 Hydropower Regulatory Efficiency Act.    We support the goal of expedited licensing consistent with the quality of the license. We do not support specific mechanisms in the discussion draft that would undercut cooperation between FERC and other agencies.    Under the draft, FERC would control the schedule for the work of other agencies, determine facts relevant to fishways and federal reservations, and exclusively administer a license once issued. This would disrupt the cooperative approach that has succeeded under the Federal Power Act since 1935. Section 10(a) of that Act requires that each license must be best adapted to a comprehensive plan for power, flood control, water support, fish, and recreation. This mandate is achieved through cooperation. FERC determines overall how to advance the public interest, and it issues the license. Other agencies write specific articles for fishways, federal reservations, and water quality. FERC and those other agencies work hard to manage the tradeoffs between competing uses of waters, looking out two generations. In the modern era, licenses have increased power capacity by 4 percent, relative to the original licenses, and are providing billions of dollars of regional economic benefits associated with non-power uses. At one project alone, recreation, including family recreation, will produce more than $330 million in such benefits over the next 30 years.    Now, let me turn to time. A licensing process is expected to take 5 years or less. Why that period? The license is based on the studies conducted to evaluate how best to manage trade-offs over two generations. Should licensings end on time? Yes. And, in fact, most do. Are some licensings delayed today? Yes. Roughly \\1/4\\. Do delays occur merely because agencies, other than FERC, write license articles? No.    Let me give an example. Under the 2005 Energy Policy Act, the federal agency that prescribes a fishway must provide a trial on disputed issues. These trials have consistently ended on time; 6 months or less. The assigned judges did this by knocking heads. Section 1303 of the discussion draft would move these trials to FERC. Would that save time? No. It would just transfer the authority to resolve those triable issues.    We support commonsense mechanisms that save time and money by improving coordination between FERC and other agencies. Cut red tape? Yes. So let me make four suggestions.    First, there should be a joint environmental document in each licensing. Today, there tend to be several. That is because FERC requires an agency cooperating in FERC's own document to forego the right to be a party. Faced with that catch 22, states tend to prepare their own documents for their water quality certifications. Half of the delayed licensings are in California, and that is largely why.    Second, a joint study plan should provide the information necessary for all license articles.    Third, there should be a comprehensive schedule, and an agency dragging its feet should be subject to a judicial mandate.    And lastly, we support the procedure used by former FERC Chair, Pat Wood, in the early 2000s. He held an annual hearing solely to address delayed licensings. He grilled his staff and parties alike to isolate and fix causes for delay. The backlog shrank very quickly.    We are committed to work with this committee, industry, agencies, and other stakeholders to develop reforms that expedite licensings consistent with the public interest in enhancing power and other beneficial uses of our nation's waters.    Thank you for the opportunity to testify. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you, Mr. Roos-Collins.    And our next witness is Mr. Randy Livingston, who is Vice President of Power Generation, at Pacific Gas and Electric. And you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Livingston</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Livingston. Good morning, and thank you.    PG&amp;E is one of the nation's largest combined electric and natural gas utilities, with more than 22,000 employees serving 16 million Californians. We are also the owner and operator of America's largest investor-owned hydro system. With 26 FERC licenses, we are regularly in the process of relicensing, and in fact, today, we have seven projects in one phase or another of relicensing.    Our system generates 3,900 megawatts of safe, clean, reliable, and affordable power for millions of Californians. It has been crucial in integrating other renewable energy sources. In addition, it provides water supply, recreation, flood control, taxes, and other benefits. Hydropower is an invaluable resource. It is one that our country can and should do more to capitalize on.    We appreciate all the efforts done to date by past Congresses to advance hydroelectric generation. We believe this Congress has taken a very important step with the release of the discussion draft on hydropower regulatory modernization, and by holding today's hearing.    PG&amp;E believes it is critical for hydroelectric power generators to be able to move through the relicensing processes more efficiently, more affordably, so we can implement the environmental protections, community improvements, and facility upgrades more quickly than we can today.    We believe the discussion draft accomplishes this fairly and effectively, while maintaining important environmental protections and community interests. In particular, it does this by clarifying FERC's exclusive authority to balance beneficial uses, and to enforce, amend, or otherwise administer all aspects of a FERC license. It improves the licensing process by allowing FERC to establish standards and deadlines for federal authorizations, it clarifies the scope of federal agencies' authority under Sections 4(e) and 18 of the Federal Power Act, and required those agencies to explain the effects of their conditions or prescription on other recognized benefits, such as energy production, flood control, and water supply. And it allows the licensee to seek a review of federal authorization or delay an issuance in the Federal Court of Appeals.    We believe the commonsense and basic reforms can make hydropower more efficient, while keeping in place the environmental protections and other benefits that we all agree are critical.    PG&amp;E places a priority on using collaborative process to relicense a facility, as both understanding and incorporating the interests of stakeholders is critical. However, as it stands today, the current process is complex, protracted, leading to higher costs and delayed implementation of improvements and upgrades. To put this into perspective, PG&amp;E's recent experiences, even for a medium-sized license, it consistently takes over 7 years to renew an existing license for an existing facility, and often well over 10 years. The cost just to complete the process for the continued operation of a facility can run over $50 million, and implementing the requirements of the new license can run into $100 million. All of these are costs that are ultimately born by the energy consumer.    Relicensing process involves numerous federal and state agencies, and stakeholders with interests that may not always align. Therefore, we believe the process should be improved to focus on the following. Ensure environmental protections and preserve hydropower, achieve the multiple benefits of relicensing sooner, reduce cost, improve predictability, and enhance the collaborative process to be results and solution-oriented, and avoid conflicting license conditions.    We would recommend a number of very specific improvements to address these license--these licensing matters, including improving coordination between federal and state environmental reviews, including an enforced discipline schedule for all parties involved, better defining the extent of authorities by federal agencies, improving federal and state agency coordination and transparency, and finally, by establishing a process for a single challenge opportunity before FERC to resolve issues or conflicting license restrictions. For example, in California, we are working to help our State Water Board environmental review follow a parallel path with the federal reviews, including relying on the same data and studies. To date, even though our State Water Board participates in relicensing, this process has generally been sequential and separate, at times resulting in conflicting license conditions. Today, it is up to the licensee to try and resolve those. As such, conditions have sometimes extended to private lands where there is no clear nexus to the project.    The discussion draft being debated here would accomplish many of these objectives. Given the focus of this committee on crafting and advancing energy policy for the 21st century, you and your colleagues have an important opportunity to bring meaningful change to the hydropower relicensing process, and to assure that it is consistent with needs and opportunities today and many years ahead.    PG&amp;E looks forward to working with you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thanks, Mr. Livingston.    And our next witness is John Suloway, who is Board Member of the National Hydropower Association, and you are recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Suloway</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Suloway. Good afternoon, Mr. Chairman, Ranking Member Rush, members of the subcommittee. My name is John Suloway. I appear today on behalf of the National Hydropower Association. I am on the Board of Directors, serve as Secretary of the Executive Committee, and I was President of NHA about 10 years ago.    NHA appreciates and commends the work this committee and Chairman Upton, and also the discussion drafts proposed by Representative Kathy McMorris Rodgers. I am honored to be here today to discuss this issue, particularly with the focus on hydropower regulatory modernization.    Let me tell you a little bit about myself. I grew up in the electric utility industry. I have focused my entire career on project development, licensing, and environmental research. Most of that time was with the New York Power Authority. I retired from NYPA at the end of the year as the Vice President of Project Development Licensing. I loved my job, I loved the power authority, and I particularly loved working in hydropower.    As you can tell from my written testimony, NYPA is one of the leading producers of electricity in the State of New York, and we have one of the largest hydropower systems in the entire country. My job and my group focused on project development and licensing of both generation and transmission projects. We worked a great deal on hydropower, but also I developed combined cycle plants and simple cycle turbine projects that burn natural gas, and also high voltage transmission lines.    In my testimony, I am trying to convey four basic points. Number one, hydropower is a great technology. It has a proven track record of being a dependable and cost-effective source of generation. Also, in today's world where the norm is change, hydropower is a crucial tool for maintaining the reliability of the changing electrical grid, while helping to address climate change. These characteristics made hydropower very attractive for economic development. There is a significant potential for increased hydropower capacity which is not being realized.    Point two, the development of more hydropower should be a key component of America's energy portfolio. We have thousands of megawatts that can be developed at existing dams that are not being developed, in part because the hydropower licensing process is protracted, costly, and risky. And us folks in the electrical utility industry tend to be risk-adverse.    Point three, we, and I mean the big we here, industry, regulators, nongovernmental organizations, and Members of Congress, we have been working since the 1990s to improve the hydropower licensing process. We have made progress. There have been improvements in the licensing and administration of hydropower, but additional work needs to be done to make the process more efficient so a significant portion of that undeveloped capacity can be developed.    My fourth point. The goals and objectives expressed in the discussion draft bills would help to make hydropower more attractive to developers and investors, while ensuring careful consideration of environmental values and the protection of natural resources. Protecting the environment and natural resources is important, and is a commitment that the hydropower industry takes seriously.    In conclusion, I have made a career of navigating these archaic processes. And that being said, I have come to the conclusion that we have a very important opportunity here that we should not miss. Like I mentioned before, incremental changes in the FERC process have improved the process, and as part of making those changes, we have created relationships, we have created friendships, and we can build on that communication improvements as we move forward. But when you stand back and you look at the fundamental question that is in front of us, why shouldn't we be able to license a hydropower project for the same amount of time and the same amount of money as it does for a combined cycle plant that is burning natural gas? And when you look that question in the face, you know we have more work to do.    So thank you for providing me this opportunity to testify on behalf of hydropower's role in meeting our nation's environmental, energy, and economic objectives, and I look forward to answering your questions.</t>
@@ -1417,11 +1354,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1443,11 +1378,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1469,11 +1402,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1493,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1521,11 +1450,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1547,11 +1474,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1573,11 +1498,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1599,11 +1522,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1625,11 +1546,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1651,11 +1570,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1677,11 +1594,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1703,11 +1618,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1729,11 +1642,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1755,11 +1666,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1781,11 +1690,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1807,11 +1714,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1833,11 +1738,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1859,11 +1762,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1883,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1909,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1935,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1961,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1987,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2013,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2039,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2067,11 +1954,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2091,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2117,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2143,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
         <v>43</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2169,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>44</v>
-      </c>
-      <c r="H31" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2195,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2221,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2247,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2273,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2299,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2325,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2351,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2377,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2403,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2429,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2455,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2481,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2507,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2533,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
         <v>59</v>
-      </c>
-      <c r="G45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2559,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>60</v>
-      </c>
-      <c r="H46" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2585,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2611,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-      <c r="G48" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2637,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2663,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2689,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2715,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2741,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>68</v>
-      </c>
-      <c r="G53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H53" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2767,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>69</v>
-      </c>
-      <c r="H54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2793,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2819,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2845,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2871,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
-      </c>
-      <c r="G58" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2897,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2923,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
-      </c>
-      <c r="G60" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2949,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2975,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3001,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3029,11 +2842,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3053,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3079,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3105,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3131,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>86</v>
-      </c>
-      <c r="G68" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3157,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>87</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3185,11 +2986,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3209,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3235,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3261,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3287,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3313,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3339,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3365,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3391,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3417,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3443,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3469,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3495,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3521,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3549,11 +3322,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3575,11 +3346,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3599,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3625,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3651,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3677,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3703,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3729,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3755,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>109</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
-      <c r="H92" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3781,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
-      </c>
-      <c r="G93" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>110</v>
-      </c>
-      <c r="H93" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3807,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3833,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3859,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
-      </c>
-      <c r="G96" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3885,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3911,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3937,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3963,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>109</v>
-      </c>
-      <c r="G100" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3989,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4015,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4041,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" t="s">
-        <v>110</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4069,11 +3802,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4093,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
-      </c>
-      <c r="G105" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4119,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>130</v>
-      </c>
-      <c r="G106" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4145,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4171,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>130</v>
-      </c>
-      <c r="G108" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4197,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
-      </c>
-      <c r="G109" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4223,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>130</v>
-      </c>
-      <c r="G110" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4249,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
-      </c>
-      <c r="G111" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4275,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
         <v>130</v>
-      </c>
-      <c r="G112" t="s">
-        <v>131</v>
-      </c>
-      <c r="H112" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4301,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>130</v>
-      </c>
-      <c r="G113" t="s">
+        <v>122</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
         <v>131</v>
-      </c>
-      <c r="H113" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4327,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
-      </c>
-      <c r="G114" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4355,11 +4066,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4379,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
-      </c>
-      <c r="G116" t="s">
-        <v>144</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4405,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>143</v>
-      </c>
-      <c r="G117" t="s">
-        <v>144</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4431,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
-      </c>
-      <c r="G118" t="s">
-        <v>144</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4457,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" t="s">
-        <v>144</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4483,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>143</v>
-      </c>
-      <c r="G120" t="s">
-        <v>144</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4511,11 +4210,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4535,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
-      </c>
-      <c r="G122" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4561,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>151</v>
-      </c>
-      <c r="G123" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4589,11 +4282,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4613,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>156</v>
-      </c>
-      <c r="G125" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4639,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
-      </c>
-      <c r="G126" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4665,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>156</v>
-      </c>
-      <c r="G127" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4691,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
-      </c>
-      <c r="G128" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4717,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
-      </c>
-      <c r="G129" t="s">
-        <v>157</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4745,11 +4426,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4769,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
-      </c>
-      <c r="G131" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4795,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>164</v>
-      </c>
-      <c r="G132" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4821,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>164</v>
-      </c>
-      <c r="G133" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4847,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>164</v>
-      </c>
-      <c r="G134" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4873,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4899,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>164</v>
-      </c>
-      <c r="G136" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4925,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4951,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4977,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5003,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>164</v>
-      </c>
-      <c r="G140" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5031,11 +4690,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5055,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
-      </c>
-      <c r="G142" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5081,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>177</v>
-      </c>
-      <c r="G143" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5107,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
-      </c>
-      <c r="G144" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5133,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
-      </c>
-      <c r="G145" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5159,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>177</v>
-      </c>
-      <c r="G146" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5185,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>177</v>
-      </c>
-      <c r="G147" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5211,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>177</v>
-      </c>
-      <c r="G148" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5237,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>177</v>
-      </c>
-      <c r="G149" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5265,11 +4906,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5289,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>177</v>
-      </c>
-      <c r="G151" t="s">
-        <v>178</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5317,11 +4954,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5343,11 +4978,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5369,11 +5002,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5393,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>177</v>
-      </c>
-      <c r="G155" t="s">
+        <v>164</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
         <v>178</v>
-      </c>
-      <c r="H155" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5421,11 +5050,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5445,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>194</v>
-      </c>
-      <c r="G157" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5471,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>194</v>
-      </c>
-      <c r="G158" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5497,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>194</v>
-      </c>
-      <c r="G159" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5523,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>194</v>
-      </c>
-      <c r="G160" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5549,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>194</v>
-      </c>
-      <c r="G161" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5575,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>194</v>
-      </c>
-      <c r="G162" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5601,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>194</v>
-      </c>
-      <c r="G163" t="s">
-        <v>195</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5629,11 +5242,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5655,11 +5266,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>204</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5681,11 +5290,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5707,11 +5314,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>207</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5733,11 +5338,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5757,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>210</v>
-      </c>
-      <c r="G169" t="s">
-        <v>211</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5785,11 +5386,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5811,11 +5410,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>214</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5837,11 +5434,9 @@
       <c r="F172" t="s">
         <v>11</v>
       </c>
-      <c r="G172" t="s">
-        <v>12</v>
-      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5863,11 +5458,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>217</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5889,11 +5482,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5915,11 +5506,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>220</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5941,11 +5530,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5967,11 +5554,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>214</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5993,11 +5578,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6019,11 +5602,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>217</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6045,11 +5626,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6071,11 +5650,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>217</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6097,11 +5674,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6123,11 +5698,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>217</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6149,11 +5722,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6175,11 +5746,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>217</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6201,11 +5770,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6227,11 +5794,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>217</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6253,11 +5818,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6279,11 +5842,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>217</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6305,11 +5866,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6331,11 +5890,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>217</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6357,11 +5914,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6383,11 +5938,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
         <v>217</v>
-      </c>
-      <c r="H193" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6409,11 +5962,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6435,11 +5986,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>217</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6461,11 +6010,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6487,11 +6034,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>217</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6513,11 +6058,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6539,11 +6082,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>204</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6565,11 +6106,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6591,11 +6130,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>204</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6617,11 +6154,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6643,11 +6178,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>204</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6669,11 +6202,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6695,11 +6226,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>204</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6721,11 +6250,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6747,11 +6274,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>204</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6773,11 +6298,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6799,11 +6322,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>204</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6825,11 +6346,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6851,11 +6370,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>207</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6877,11 +6394,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>214</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6903,11 +6418,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>214</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6929,11 +6442,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>214</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6955,11 +6466,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>214</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6981,11 +6490,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7005,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>164</v>
-      </c>
-      <c r="G217" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7033,11 +6538,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>204</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7057,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>164</v>
-      </c>
-      <c r="G219" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7085,11 +6586,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>204</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7109,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>164</v>
-      </c>
-      <c r="G221" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7137,11 +6634,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>204</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7161,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>164</v>
-      </c>
-      <c r="G223" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7189,11 +6682,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>204</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7213,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>164</v>
-      </c>
-      <c r="G225" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7241,11 +6730,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>204</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7265,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>164</v>
-      </c>
-      <c r="G227" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7293,11 +6778,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>204</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7317,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>164</v>
-      </c>
-      <c r="G229" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7345,11 +6826,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>204</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7369,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>164</v>
-      </c>
-      <c r="G231" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7397,11 +6874,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>207</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7421,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>164</v>
-      </c>
-      <c r="G233" t="s">
-        <v>165</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7449,11 +6922,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7473,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
-      </c>
-      <c r="G235" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7501,11 +6970,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>217</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7525,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
-      </c>
-      <c r="G237" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7553,11 +7018,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>217</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7577,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
-      </c>
-      <c r="G239" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7605,11 +7066,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>217</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7629,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
-      </c>
-      <c r="G241" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7657,11 +7114,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>204</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7681,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
-      </c>
-      <c r="G243" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7709,11 +7162,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>204</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7733,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>43</v>
-      </c>
-      <c r="G245" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7761,11 +7210,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>204</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7785,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
-      </c>
-      <c r="G247" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7813,11 +7258,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>204</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7837,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>43</v>
-      </c>
-      <c r="G249" t="s">
-        <v>44</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7865,11 +7306,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7889,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>210</v>
-      </c>
-      <c r="G251" t="s">
-        <v>211</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7917,11 +7354,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7943,11 +7378,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>220</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7969,11 +7402,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7995,11 +7426,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>220</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8021,11 +7450,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8047,11 +7474,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>214</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8073,11 +7498,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8099,11 +7522,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>214</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8125,11 +7546,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8151,11 +7570,9 @@
       <c r="F261" t="s">
         <v>11</v>
       </c>
-      <c r="G261" t="s">
-        <v>214</v>
-      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8177,11 +7594,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8203,11 +7618,9 @@
       <c r="F263" t="s">
         <v>11</v>
       </c>
-      <c r="G263" t="s">
-        <v>217</v>
-      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8229,11 +7642,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8255,11 +7666,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>217</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8281,11 +7690,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8305,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>68</v>
-      </c>
-      <c r="G267" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8333,11 +7738,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>207</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8357,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>68</v>
-      </c>
-      <c r="G269" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8385,11 +7786,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>207</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8409,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>68</v>
-      </c>
-      <c r="G271" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8437,11 +7834,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>204</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8461,13 +7856,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>68</v>
-      </c>
-      <c r="G273" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8489,11 +7882,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>204</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8513,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>68</v>
-      </c>
-      <c r="G275" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8541,11 +7930,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>204</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8567,11 +7954,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>207</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8591,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>68</v>
-      </c>
-      <c r="G278" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8619,11 +8002,9 @@
       <c r="F279" t="s">
         <v>11</v>
       </c>
-      <c r="G279" t="s">
-        <v>204</v>
-      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8643,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>68</v>
-      </c>
-      <c r="G280" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8671,11 +8050,9 @@
       <c r="F281" t="s">
         <v>11</v>
       </c>
-      <c r="G281" t="s">
-        <v>204</v>
-      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8695,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>68</v>
-      </c>
-      <c r="G282" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8723,11 +8098,9 @@
       <c r="F283" t="s">
         <v>11</v>
       </c>
-      <c r="G283" t="s">
-        <v>204</v>
-      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8747,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>68</v>
-      </c>
-      <c r="G284" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8775,11 +8146,9 @@
       <c r="F285" t="s">
         <v>11</v>
       </c>
-      <c r="G285" t="s">
-        <v>204</v>
-      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8799,13 +8168,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>68</v>
-      </c>
-      <c r="G286" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8827,11 +8194,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>204</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8851,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>68</v>
-      </c>
-      <c r="G288" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8879,11 +8242,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>204</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8903,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>68</v>
-      </c>
-      <c r="G290" t="s">
-        <v>69</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8931,11 +8290,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8957,11 +8314,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>214</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8983,11 +8338,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9009,11 +8362,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9035,11 +8386,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
